--- a/Version1.1/流水线CPU-insExt.xlsx
+++ b/Version1.1/流水线CPU-insExt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16922\Desktop\祭祖\计组课设\P5\需求文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F7C6F-3B7E-41EC-BF37-08409A3EA0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B457DD-CDF8-44A5-9FC4-05982912EE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="160" windowWidth="17180" windowHeight="9520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2388,7 +2388,7 @@
         <v>111</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>132</v>

--- a/Version1.1/流水线CPU-insExt.xlsx
+++ b/Version1.1/流水线CPU-insExt.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16922\Desktop\祭祖\计组课设\P5\需求文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B457DD-CDF8-44A5-9FC4-05982912EE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF49C7B-EAF9-4DC7-A0FA-1E05364EB3DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tnew,Tuse" sheetId="2" r:id="rId2"/>
+    <sheet name="DataPath" sheetId="1" r:id="rId1"/>
+    <sheet name="Controller" sheetId="3" r:id="rId2"/>
+    <sheet name="controll_signal" sheetId="4" r:id="rId3"/>
+    <sheet name="Tnew,Tuse" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -901,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,6 +939,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,6 +960,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1235,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1260,49 +1266,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="O1" s="1"/>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="15" t="s">
+      <c r="Q1" s="18"/>
+      <c r="R1" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1333,7 +1339,7 @@
       <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="1" t="s">
         <v>88</v>
       </c>
@@ -1343,7 +1349,7 @@
       <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="15"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1857,793 +1863,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2">
-        <v>100001</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
+    <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:C2"/>
@@ -2664,6 +1886,883 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17A6C14-8FC2-4A28-B36B-85D830DEFD8F}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13">
+        <v>100001</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A5288D-F10A-460C-9DFA-930BA6E1D55B}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA336C7-0969-44DF-A876-8F752C94722C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2674,25 +2773,25 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>143</v>
       </c>
